--- a/report design.xlsx
+++ b/report design.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\github\accounting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7440" activeTab="1"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
   <si>
     <t>tong theo ten</t>
   </si>
@@ -208,13 +213,16 @@
   </si>
   <si>
     <t>kiem ke</t>
+  </si>
+  <si>
+    <t>luong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +549,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -587,7 +603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,9 +635,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,6 +670,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -828,14 +846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D50" sqref="D50:J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -849,7 +867,7 @@
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -861,7 +879,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="21" t="s">
         <v>25</v>
@@ -873,7 +891,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
@@ -896,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="16"/>
       <c r="C5" s="24"/>
@@ -913,7 +931,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1">
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -942,7 +960,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1">
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>41</v>
       </c>
@@ -961,7 +979,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -974,7 +992,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -989,7 +1007,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1026,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1021,7 +1039,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1034,7 +1052,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,12 +1062,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1064,19 +1082,19 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1096,7 +1114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1116,7 +1134,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1153,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1182,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1207,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="2">
         <v>2</v>
@@ -1198,7 +1216,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="2">
         <v>3</v>
@@ -1209,7 +1227,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>2</v>
@@ -1221,7 +1239,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>3</v>
@@ -1244,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1265,7 +1283,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1282,7 +1300,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1299,7 +1317,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1312,7 +1330,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1325,7 +1343,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1338,7 +1356,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1356,7 +1374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1373,7 +1391,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1381,7 +1399,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1391,7 +1409,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1399,7 +1417,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1420,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1441,7 +1459,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1460,7 +1478,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1479,7 +1497,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1490,7 +1508,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1503,7 +1521,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1516,7 +1534,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1529,7 +1547,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1544,7 +1562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1565,7 +1583,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1573,7 +1591,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1581,7 +1599,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1589,7 +1607,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1599,7 +1617,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1607,7 +1625,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1628,7 +1646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1649,7 +1667,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1666,7 +1684,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1679,7 +1697,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1692,7 +1710,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1711,7 +1729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1722,7 +1740,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1730,7 +1748,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1738,7 +1756,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1746,7 +1764,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1754,7 +1772,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1762,7 +1780,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1770,7 +1788,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1778,7 +1796,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1786,7 +1804,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1794,7 +1812,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1802,7 +1820,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1810,7 +1828,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1818,7 +1836,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1826,7 +1844,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1834,7 +1852,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1842,7 +1860,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1850,7 +1868,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1858,7 +1876,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1866,7 +1884,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1874,7 +1892,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1882,7 +1900,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1890,7 +1908,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1898,7 +1916,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1906,7 +1924,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1914,7 +1932,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1922,7 +1940,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1930,7 +1948,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1938,7 +1956,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1946,7 +1964,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1954,7 +1972,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1962,7 +1980,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1970,7 +1988,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1978,7 +1996,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1986,7 +2004,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1994,7 +2012,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2002,7 +2020,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2010,7 +2028,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2018,7 +2036,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2026,7 +2044,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2034,7 +2052,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2042,7 +2060,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2050,7 +2068,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2058,7 +2076,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2066,7 +2084,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2074,7 +2092,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2082,7 +2100,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2090,7 +2108,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2098,7 +2116,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2106,7 +2124,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2114,7 +2132,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2122,7 +2140,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2130,31 +2148,31 @@
       <c r="E110" s="3"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E111" s="3"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E112" s="3"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="5:6">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113" s="3"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="5:6">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="5:6">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115" s="3"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="5:6">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116" s="3"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="5:6">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F117" s="2"/>
     </row>
   </sheetData>
@@ -2165,33 +2183,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:8" ht="30">
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
         <v>20</v>
@@ -2209,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="31" t="s">
         <v>22</v>
@@ -2227,7 +2245,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="32"/>
       <c r="D8" s="7">
@@ -2241,7 +2259,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="32"/>
       <c r="D9" s="7">
@@ -2255,7 +2273,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="32"/>
       <c r="D10" s="7">
@@ -2265,7 +2283,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="33"/>
       <c r="D11" s="5">
@@ -2275,7 +2293,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="33"/>
       <c r="D12" s="5">
@@ -2285,7 +2303,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="34"/>
       <c r="D13" s="5"/>
@@ -2300,7 +2318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
         <v>23</v>
@@ -2314,22 +2332,22 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:7" ht="30">
+    <row r="19" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>6</v>
       </c>
@@ -2343,10 +2361,13 @@
         <v>47</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <v>1</v>
       </c>
@@ -2362,8 +2383,11 @@
       <c r="G20" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="H20" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="7">
         <v>2</v>
       </c>
@@ -2375,8 +2399,9 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <v>3</v>
       </c>
@@ -2384,8 +2409,9 @@
       <c r="E22" s="42"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="3:7">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>4</v>
       </c>
@@ -2393,8 +2419,9 @@
       <c r="E23" s="42"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="3:7">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>34</v>
@@ -2408,13 +2435,17 @@
       <c r="G24" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="3:7">
+      <c r="H24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="30"/>
       <c r="E25" s="43"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2422,14 +2453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -2438,24 +2469,24 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="38" t="s">
         <v>38</v>
@@ -2470,7 +2501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="35">
         <v>42736</v>
@@ -2485,7 +2516,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="7">
         <v>1</v>
@@ -2496,7 +2527,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="7">
         <v>1</v>
@@ -2507,7 +2538,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="7">
         <v>2</v>
@@ -2516,7 +2547,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="5">
         <v>3</v>
@@ -2525,7 +2556,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="5">
         <v>4</v>
@@ -2534,7 +2565,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
       <c r="D13" s="30"/>
@@ -2543,7 +2574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -2554,33 +2585,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="30">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="11" t="s">
         <v>20</v>
@@ -2595,7 +2626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="31" t="s">
         <v>22</v>
@@ -2610,7 +2641,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="32"/>
       <c r="D7" s="7">
@@ -2623,7 +2654,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="33"/>
       <c r="D8" s="5">
@@ -2632,7 +2663,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="34"/>
       <c r="D9" s="5">
@@ -2641,7 +2672,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="D10" s="5"/>
       <c r="E10" s="30" t="s">
@@ -2654,7 +2685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -2667,7 +2698,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
@@ -2678,33 +2709,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -2722,7 +2753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="7">
         <v>1</v>
@@ -2740,7 +2771,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="7">
         <v>2</v>
@@ -2754,7 +2785,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5">
         <v>3</v>
@@ -2764,7 +2795,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5">
         <v>4</v>
@@ -2774,7 +2805,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
@@ -2790,7 +2821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="30"/>
@@ -2798,7 +2829,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
